--- a/Data/Osteomyelitis_Trauma_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Trauma_Mortality_Trend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6B10F3-DC75-B041-AEA5-66D98FE4C2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF3838-F3FD-764F-91D7-49AA03CB7D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17260" activeTab="1" xr2:uid="{833C0738-53A6-8443-819A-5674A2AFD03E}"/>
   </bookViews>
@@ -2131,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4126B4D4-6529-6B45-AEEA-CB9E31E91ED8}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D23"/>
+      <selection activeCell="B24" sqref="B24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2461,6 +2461,48 @@
         <v>0.08</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24">
+        <v>0.09</v>
+      </c>
+      <c r="D24">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.06</v>
+      </c>
+      <c r="D25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>0.06</v>
+      </c>
+      <c r="C26">
+        <v>0.05</v>
+      </c>
+      <c r="D26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Osteomyelitis_Trauma_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Trauma_Mortality_Trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF3838-F3FD-764F-91D7-49AA03CB7D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC5343-8FC7-1844-BCCF-2A076D647595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17260" activeTab="1" xr2:uid="{833C0738-53A6-8443-819A-5674A2AFD03E}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="1" xr2:uid="{833C0738-53A6-8443-819A-5674A2AFD03E}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Cause of Death, 1999-2" sheetId="1" r:id="rId1"/>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D26"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2228,7 +2228,7 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C7">
         <v>0.02</v>
@@ -2270,7 +2270,7 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C10">
         <v>0.02</v>
@@ -2298,7 +2298,7 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C12">
         <v>0.02</v>
@@ -2312,7 +2312,7 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C13">
         <v>0.02</v>
@@ -2326,7 +2326,7 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C14">
         <v>0.02</v>
@@ -2340,7 +2340,7 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C15">
         <v>0.02</v>
@@ -2354,7 +2354,7 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C16">
         <v>0.02</v>
@@ -2382,7 +2382,7 @@
         <v>2015</v>
       </c>
       <c r="B18">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C18">
         <v>0.03</v>
@@ -2396,7 +2396,7 @@
         <v>2016</v>
       </c>
       <c r="B19">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="C19">
         <v>0.04</v>
@@ -2410,7 +2410,7 @@
         <v>2017</v>
       </c>
       <c r="B20">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C20">
         <v>0.04</v>
@@ -2424,7 +2424,7 @@
         <v>2018</v>
       </c>
       <c r="B21">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C21">
         <v>0.04</v>
@@ -2438,7 +2438,7 @@
         <v>2019</v>
       </c>
       <c r="B22">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C22">
         <v>0.04</v>
@@ -2452,7 +2452,7 @@
         <v>2020</v>
       </c>
       <c r="B23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C23">
         <v>0.06</v>
@@ -2466,7 +2466,7 @@
         <v>2021</v>
       </c>
       <c r="B24">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C24">
         <v>0.09</v>
@@ -2480,7 +2480,7 @@
         <v>2022</v>
       </c>
       <c r="B25">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C25">
         <v>0.06</v>
@@ -2494,7 +2494,7 @@
         <v>2023</v>
       </c>
       <c r="B26">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="C26">
         <v>0.05</v>
